--- a/docs/0.1.0/StructureDefinition-see-also.xlsx
+++ b/docs/0.1.0/StructureDefinition-see-also.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -193,7 +193,7 @@
     <t>matchSourceReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/match-source-reference}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-source-reference}
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>matchMethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/match-method}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-method}
 </t>
   </si>
   <si>
@@ -213,23 +213,20 @@
     <t>splitMethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/split-method}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/split-method}
 </t>
   </si>
   <si>
     <t>Method used to identify the matched resource to split</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>matchConfidenceLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/match-confidence-level}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-confidence-level}
 </t>
   </si>
   <si>
@@ -239,7 +236,7 @@
     <t>matchConfidenceScore</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/match-confidence-score}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-confidence-score}
 </t>
   </si>
   <si>
@@ -249,7 +246,7 @@
     <t>matchPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/match-period}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-period}
 </t>
   </si>
   <si>
@@ -259,11 +256,11 @@
     <t>matchDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/match-detail}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-detail}
 </t>
   </si>
   <si>
-    <t>Detailed match algorithm results used to match resources</t>
+    <t>Detailed match algorthm results used to match resources</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -282,7 +279,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://alvearie.io/fhir/StructureDefinition/see-also</t>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/see-also</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -467,7 +464,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -938,7 +935,7 @@
         <v>58</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1040,7 +1037,7 @@
         <v>61</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1142,7 +1139,7 @@
         <v>64</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1208,7 +1205,7 @@
         <v>42</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1216,7 +1213,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1238,13 +1235,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>69</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1318,7 +1315,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1340,13 +1337,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1420,7 +1417,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1442,13 +1439,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1522,7 +1519,7 @@
         <v>50</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
@@ -1544,13 +1541,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1644,16 +1641,16 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1661,7 +1658,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>37</v>
@@ -1703,7 +1700,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -1718,12 +1715,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1746,13 +1743,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1803,7 +1800,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1815,10 +1812,10 @@
         <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/docs/0.1.0/StructureDefinition-see-also.xlsx
+++ b/docs/0.1.0/StructureDefinition-see-also.xlsx
@@ -454,42 +454,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.88671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.36328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.16796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/0.1.0/StructureDefinition-see-also.xlsx
+++ b/docs/0.1.0/StructureDefinition-see-also.xlsx
@@ -454,42 +454,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.36328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.16796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.53125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
